--- a/R/Spr_BM_scaled_Atl_DynamicBoxesOnly.xlsx
+++ b/R/Spr_BM_scaled_Atl_DynamicBoxesOnly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>acared</t>
   </si>
@@ -69,6 +69,9 @@
     <t>bluefi</t>
   </si>
   <si>
+    <t>bluher</t>
+  </si>
+  <si>
     <t>butter</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>sandla</t>
   </si>
   <si>
+    <t>scupzz</t>
+  </si>
+  <si>
     <t>seasca</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>smodog</t>
   </si>
   <si>
+    <t>smoska</t>
+  </si>
+  <si>
     <t>spidog</t>
   </si>
   <si>
@@ -154,6 +163,123 @@
   </si>
   <si>
     <t>yelflo</t>
+  </si>
+  <si>
+    <t>YTF</t>
+  </si>
+  <si>
+    <t>WTF</t>
+  </si>
+  <si>
+    <t>WSK</t>
+  </si>
+  <si>
+    <t>WIF</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>WHK</t>
+  </si>
+  <si>
+    <t>TYL</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>DOG</t>
+  </si>
+  <si>
+    <t>SMO</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>ISQ</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>RHK</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>OHK</t>
+  </si>
+  <si>
+    <t>POU</t>
+  </si>
+  <si>
+    <t>GOO</t>
+  </si>
+  <si>
+    <t>LSQ</t>
+  </si>
+  <si>
+    <t>LSK</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>FOU</t>
+  </si>
+  <si>
+    <t>BUT</t>
+  </si>
+  <si>
+    <t>BLF</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>WOL</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>MAK</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
 </sst>
 </file>
@@ -961,3275 +1087,4781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="N37" workbookViewId="0">
+      <selection activeCell="AI56" sqref="AI56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>22</v>
       </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>4.4584205514498602E-4</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>4.1127639704013099E-4</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2.3953687871721301E-3</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>7.0591312423815998E-4</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1.4003905052801201E-3</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1.0023580681938001E-3</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>9.9796945746515194E-4</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>8.8946883283038194E-3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>7.7681795302673301E-4</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>6.0371773393498002E-2</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.18495237016791999</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.9186451402102799E-2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1.64067920368971E-3</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2.0373649514176901E-3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>7.0998837386868898E-3</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.19296114488889901</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2.64689961114765E-2</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>2.0206741936057301E-2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.18873300684251401</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.161434192967778</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>5.6446308515727697E-2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>6.14304612043663E-2</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1.00801945449944E-3</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2.8686727703615102E-4</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1.3175149946001101E-3</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2.7663631084502201E-3</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2.65804263546887E-3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2.02308019057134E-3</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>5.78849574689264E-3</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2.1204916596574998E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>4.5371637232796101E-3</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.124208443642026</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.137354248020956</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>6.6907778598775905E-2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1.81699441730971E-2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>8.4502521542213199E-3</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.3065588921253802E-2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.14493280377064999</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>8.7262709652774301E-2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>6.6493929895234505E-2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.102358652902869</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>7.6964725000700701E-2</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>4.1216637460710102E-2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5.1023822079358697E-2</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4.8110816565831499E-3</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>7.5317152126496397E-3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.5264779556431801E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.15215564523511E-2</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.33865984085993E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1.47998709006053E-2</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2.5760968333307401E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>3.53730777621791E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.27847470877389E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>8.5315483179482607E-2</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>4.6944234892347302E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>3.6550058249567398E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1.5885603503616699E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.4990752669812899E-2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.9524646604903899E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>7.4213785980233204E-2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.13686632653816999</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.123921839518235</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>7.6356495806008895E-2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>5.4865600081944597E-2</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7.8072809046260794E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>8.5257968558971706E-2</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1.79439291338111E-3</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>2.0746222207638902E-3</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2.4431431920915901E-3</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>6.32917913920099E-3</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>5.5756007970346301E-3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>6.8973326330007004E-3</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>2.0804984257808998E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>5.5575149437448901E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.3504418416426699E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.101376591171778</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>6.3648999237586906E-2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>7.5716991176547399E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>6.0884463772887601E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>2.53501664517762E-2</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>9.4240247811005901E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>5.33887213320072E-2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>4.7112370292420498E-2</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>4.48788132946892E-2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>5.7280920701094203E-2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>5.8186562850731899E-2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.113825256370104</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>8.9111072530213303E-2</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.40488531797069799</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>4.72600076343581E-2</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1.6799917883220699E-2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.106264704230288</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.6602391975564401E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1.48366845602039E-2</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>2.7949089172897099E-3</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>4.0199117617215098E-3</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2.57840318111606E-3</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4.0190646243349698E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>5.4207862120191595E-4</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>5.7972941272391599E-4</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>4.5518027206085899E-3</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1.0217635149563299E-3</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>3.2767219050728498E-3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>3.6334701297206399E-6</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>1.57688539480265E-2</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.29376932184876797</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>2.63214217829661E-4</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>1.9269187740406001E-4</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>1.70418924449087E-4</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>2.3626875181018699E-2</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>3.9983252953299997E-3</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1.50486797810498E-3</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>6.5673909605639899E-4</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.21046119400163E-2</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>2.7977171512866602E-3</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>7.9708666288667602E-4</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>8.5244576859360502E-3</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.97242016072381E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>3.4612447168612202E-3</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>2.38877263355699E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>1.39832692239254E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.50899578187035E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2.0274373176474701E-2</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>9.1666434467511295E-3</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>2.4737263283524099E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>5.0795896515148903E-2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.117968382741896</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.27895049089770202</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>6.8604764728603704E-2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>1.0961688886876301E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>2.8604793498918001E-2</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.28340549731219</v>
       </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>4.34198018118504E-2</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>4.9940189878767603E-2</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2.7263818271750801E-2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>4.7694645092542703E-2</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>5.2411008549511702E-2</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>5.6810187300149702E-2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>5.2849189311519398E-2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>4.1050179250085597E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>5.1922162438647598E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>4.20227416870581E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>4.7019805703038903E-2</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>4.6020419963395398E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>4.0530313529129898E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>4.08043744688599E-2</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3.7240665977390397E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>4.4771772154139501E-2</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>5.27343345592831E-2</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>5.4398696391428102E-2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>4.2891391674493698E-2</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>4.3980537559114102E-2</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>4.5183628682951199E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>3.9040135744891902E-2</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1.6288664155058599E-2</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>8.3573810679989702E-2</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>8.3843116381896496E-2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1.0164542908547999E-2</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.100795379161708</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8.8281638475019894E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1.9200830559173099E-2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2.9094086622516498E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>6.1028265955022303E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1.59695478884593E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>5.1799611119837302E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>5.8131183141531401E-2</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>3.9461377237851501E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>6.7703358946818101E-2</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>3.7784110659875303E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>3.0598389319552201E-2</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>1.4749086685615E-2</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1.7820821202158402E-2</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>3.7276956584396899E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>4.5733153869618202E-2</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>5.2245956232638599E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>3.8456112212715499E-2</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>4.6587309638118898E-2</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>5.0009426463901399E-2</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>5.2547328191102097E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2.9153249488538299E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>4.4596380159434998E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>4.4669508601267498E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3.2963038046944601E-2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>3.3671964022746401E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>3.7779154372249803E-2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>4.3984906283660301E-2</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>5.64221331142441E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>4.4276012839492999E-2</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>3.41990299960276E-2</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>4.35817697265687E-2</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>3.7322096639145E-2</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>5.47512844362672E-2</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>5.1189773510645201E-2</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>5.4521042426754998E-2</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>5.3424580558380598E-2</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>5.5595866692551801E-2</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>5.18425633540118E-2</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>4.6911581437945701E-2</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>5.6614437346695497E-5</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>5.9661079250990505E-4</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2.7080476066547701E-2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.7235207132247599E-4</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.6282932498741898E-2</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>7.76119280940539E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2.01499152792054E-4</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>2.5134250984369801E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>5.6407036113434297E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>4.7823658326468101E-2</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.26737452352717</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>5.5619308425444401E-2</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>4.4443038011889702E-2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3.7543625760986098E-2</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1.14479933377825E-2</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>8.9051812917459297E-2</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>3.8813108274092303E-2</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>7.6335174430812905E-2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>5.4013619489129798E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3.8000986837988797E-2</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>7.7439436367319203E-3</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>2.82455068129253E-2</v>
       </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>1.15943133852067E-2</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>1.34114144166928E-2</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>3.4553185168584098E-2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2.4071468116866002E-2</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>2.7279990669633301E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>4.6102803831429402E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3.2791617757998201E-2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>3.6589277755998101E-2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>6.45012220402644E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>3.0582795425650799E-2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>4.7329022600858098E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>4.8095862881053102E-2</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>2.5074865381432099E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>8.5437325384475002E-2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>6.8935470618275596E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>6.0429138126342798E-2</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>5.3152933913565202E-2</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>5.1291314963308701E-2</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>5.2880169840585599E-2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>4.5533322849876698E-2</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>5.6532592755119501E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>8.3829892116783794E-2</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>3.3643721971593002E-3</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>5.0823972173238098E-3</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>5.5400463709415404E-3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>3.3299633043272999E-3</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>4.7830411745342898E-3</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.49340385577441E-3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1.20027620555513E-2</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>4.5592399000992899E-2</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2.4597152561280601E-3</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.15175563338957701</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>6.5772882343956701E-2</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>2.46243661644471E-2</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>1.8462958909102999E-2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>4.54085920842048E-3</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>5.0924748441537201E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>7.2818238418967299E-2</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>9.2073607298882795E-2</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>7.3766267798143006E-2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>4.34243547952664E-2</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>2.1886289340355001E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.218088231769615</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>7.7213461688996607E-2</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>6.2832852321212298E-4</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>5.7636976968124696E-3</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>5.1402556997722601E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>5.2912067071599295E-4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>6.1363767494400097E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.12961718224660901</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>7.4690702233191804E-3</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>6.4760833845051401E-3</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.122197955454546</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2.8429456519439701E-3</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>4.0966195364361101E-2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>3.4497615705430598E-2</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>2.82913280690898E-3</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.193120430209684</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>9.51252656199051E-2</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2.5787402020750499E-2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>1.9083751743304599E-3</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2.8101884188804801E-3</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>3.4433028707991503E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>5.8217124524700702E-2</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>9.1831213388983202E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>3.0183319714286599E-2</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>5.0499116195262497E-2</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>4.8953880826956897E-2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>4.9739286841016798E-2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>4.69948517692063E-2</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>4.6720245582957301E-2</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>4.5501536775269698E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>4.4616437596836797E-2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4.3640822022150402E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4.47580514975928E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>4.3996761555624098E-2</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4.4094862183726297E-2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>4.4181750375709199E-2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>4.4418253250257701E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>4.5272927828256898E-2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>4.3836325531783397E-2</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>4.4115684340909497E-2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>4.6319294250072598E-2</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>4.53994611416908E-2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>4.4069178844342603E-2</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>4.44632189120008E-2</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>4.4729819943959997E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>4.3678232734416601E-2</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>4.0337620898751496E-3</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>4.2289502490794002E-2</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.50074893581374003</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1.59206657712577E-3</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.18604270536829001</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.13040996860452</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1.81168517001605E-3</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1.3837309534160301E-3</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>4.0048891881901701E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>1.3094169117409699E-3</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>2.0935013689991198E-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>2.3741707770394199E-4</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>3.15080128724191E-4</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>3.1983327070014701E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>1.6770846700050099E-3</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>9.6943169868648799E-4</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>1.6678535954009E-3</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>4.95801938537852E-3</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1.1409588276030799E-3</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>4.8048926235909799E-3</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>8.01027068939064E-3</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>1.3629984682090699E-2</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>6.9732934859042597E-3</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>0.10777640845035399</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.50146355177809099</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.0024012511464799E-3</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>4.56704692956292E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>8.35177971218274E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>3.28223197443593E-3</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4.7054091674047097E-3</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7.8154571250365096E-2</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>3.3983365209513399E-3</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>9.5235145476219602E-3</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>4.5892504537509496E-3</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>3.6309047112188602E-4</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>7.5839675426787795E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>1.4584312763949E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>7.9909357658653497E-3</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>2.8990767082963101E-3</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>3.9300753551378799E-3</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>6.65922063671932E-3</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>9.0110388560058208E-3</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>2.5415246686837902E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>3.2500920317964899E-3</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.107437239483201</v>
+      </c>
+      <c r="E18">
+        <v>9.9186495242769804E-2</v>
+      </c>
+      <c r="F18">
+        <v>2.7545479920538799E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.30409339324007E-2</v>
+      </c>
+      <c r="H18">
+        <v>9.3776059333418704E-2</v>
+      </c>
+      <c r="I18">
+        <v>9.6319426129240104E-2</v>
+      </c>
+      <c r="J18">
+        <v>3.5144693524041398E-2</v>
+      </c>
+      <c r="K18">
+        <v>5.3619059047074299E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.6659706434458601E-2</v>
+      </c>
+      <c r="M18">
+        <v>6.5469248850898096E-2</v>
+      </c>
+      <c r="N18">
+        <v>7.2309540480177695E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.7896619157054101E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.5427200826874699E-2</v>
+      </c>
+      <c r="Q18">
+        <v>4.5811271489791397E-3</v>
+      </c>
+      <c r="R18">
+        <v>8.6151807183712792E-3</v>
+      </c>
+      <c r="S18">
+        <v>4.2785010866637899E-2</v>
+      </c>
+      <c r="T18">
+        <v>7.0344844713303406E-2</v>
+      </c>
+      <c r="U18">
+        <v>4.5282455742829901E-2</v>
+      </c>
+      <c r="V18">
+        <v>2.89102438133086E-2</v>
+      </c>
+      <c r="W18">
+        <v>3.2925041442331701E-2</v>
+      </c>
+      <c r="X18">
+        <v>1.09192928550641E-2</v>
+      </c>
+      <c r="Y18">
+        <v>2.1805100337026199E-2</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1.12469856825172E-2</v>
       </c>
-      <c r="C18">
+      <c r="E19">
         <v>6.6917647943011305E-2</v>
       </c>
-      <c r="D18">
+      <c r="F19">
         <v>0.24131322851391401</v>
       </c>
-      <c r="E18">
+      <c r="G19">
         <v>2.8653459124992199E-3</v>
       </c>
-      <c r="F18">
+      <c r="H19">
         <v>0.122703155140912</v>
       </c>
-      <c r="G18">
+      <c r="I19">
         <v>0.19430983938003299</v>
       </c>
-      <c r="H18">
+      <c r="J19">
         <v>5.6491924966735304E-3</v>
       </c>
-      <c r="I18">
+      <c r="K19">
         <v>1.61983344083568E-3</v>
       </c>
-      <c r="J18">
+      <c r="L19">
         <v>0.14717597671661001</v>
       </c>
-      <c r="K18">
+      <c r="M19">
         <v>1.3307936664708499E-3</v>
       </c>
-      <c r="L18">
+      <c r="N19">
         <v>8.1731456725141708E-3</v>
       </c>
-      <c r="M18">
+      <c r="O19">
         <v>2.8702785473767099E-3</v>
       </c>
-      <c r="N18">
+      <c r="P19">
         <v>2.1903131856245701E-3</v>
       </c>
-      <c r="O18">
+      <c r="Q19">
         <v>0.13945032179302599</v>
       </c>
-      <c r="P18">
+      <c r="R19">
         <v>5.3447129792990799E-3</v>
       </c>
-      <c r="Q18">
+      <c r="S19">
         <v>3.2311821826971898E-3</v>
       </c>
-      <c r="R18">
+      <c r="T19">
         <v>1.4407647812029699E-3</v>
       </c>
-      <c r="S18">
+      <c r="U19">
         <v>2.10220993646227E-3</v>
       </c>
-      <c r="T18">
+      <c r="V19">
         <v>5.8478584039131304E-3</v>
       </c>
-      <c r="U18">
+      <c r="W19">
         <v>7.2745221190382101E-3</v>
       </c>
-      <c r="V18">
+      <c r="X19">
         <v>2.0148000418777401E-2</v>
       </c>
-      <c r="W18">
+      <c r="Y19">
         <v>6.7946910865906698E-3</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0.20877764301818799</v>
       </c>
-      <c r="C19">
+      <c r="E20">
         <v>0.43251830127935498</v>
       </c>
-      <c r="D19">
+      <c r="F20">
         <v>0.28160626365997199</v>
       </c>
-      <c r="E19">
+      <c r="G20">
         <v>1.30198927399934E-2</v>
       </c>
-      <c r="F19">
+      <c r="H20">
         <v>1.9933906385185399E-2</v>
       </c>
-      <c r="G19">
+      <c r="I20">
         <v>1.10082404391817E-2</v>
       </c>
-      <c r="H19">
+      <c r="J20">
         <v>4.7036125783964803E-3</v>
       </c>
-      <c r="I19">
+      <c r="K20">
         <v>5.4259973917170404E-4</v>
       </c>
-      <c r="J19">
+      <c r="L20">
         <v>2.0245116030224602E-3</v>
       </c>
-      <c r="K19">
+      <c r="M20">
         <v>8.0149187482134296E-4</v>
       </c>
-      <c r="L19">
+      <c r="N20">
         <v>1.68468703255592E-3</v>
       </c>
-      <c r="M19">
+      <c r="O20">
         <v>2.4343257622676801E-4</v>
       </c>
-      <c r="N19">
+      <c r="P20">
         <v>6.2275660141637495E-4</v>
       </c>
-      <c r="O19">
+      <c r="Q20">
         <v>1.77246288380772E-3</v>
       </c>
-      <c r="P19">
+      <c r="R20">
         <v>4.6888490757910099E-4</v>
       </c>
-      <c r="Q19">
+      <c r="S20">
         <v>4.5923413495156896E-3</v>
       </c>
-      <c r="R19">
+      <c r="T20">
         <v>4.0785016017906104E-3</v>
       </c>
-      <c r="S19">
+      <c r="U20">
         <v>4.1095713428553303E-3</v>
       </c>
-      <c r="T19">
+      <c r="V20">
         <v>3.8622006082202902E-3</v>
       </c>
-      <c r="U19">
+      <c r="W20">
         <v>2.0251208632643498E-3</v>
       </c>
-      <c r="V19">
+      <c r="X20">
         <v>1.20111282477546E-3</v>
       </c>
-      <c r="W19">
+      <c r="Y20">
         <v>4.0246409070542998E-4</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>7.9379560074002004E-4</v>
       </c>
-      <c r="C20">
+      <c r="E21">
         <v>1.5416292693835499E-2</v>
       </c>
-      <c r="D20">
+      <c r="F21">
         <v>0.120486415872038</v>
       </c>
-      <c r="E20">
+      <c r="G21">
         <v>1.63817572379648E-3</v>
       </c>
-      <c r="F20">
+      <c r="H21">
         <v>0.11813920629500201</v>
       </c>
-      <c r="G20">
+      <c r="I21">
         <v>0.20241301861528399</v>
       </c>
-      <c r="H20">
+      <c r="J21">
         <v>1.14221779329095E-2</v>
       </c>
-      <c r="I20">
+      <c r="K21">
         <v>7.05592339026104E-3</v>
       </c>
-      <c r="J20">
+      <c r="L21">
         <v>0.117924303630973</v>
       </c>
-      <c r="K20">
+      <c r="M21">
         <v>2.28016614666001E-2</v>
       </c>
-      <c r="L20">
+      <c r="N21">
         <v>2.9137110225411499E-2</v>
       </c>
-      <c r="M20">
+      <c r="O21">
         <v>1.8087968258763399E-2</v>
       </c>
-      <c r="N20">
+      <c r="P21">
         <v>3.6682020138119401E-3</v>
       </c>
-      <c r="O20">
+      <c r="Q21">
         <v>0.151695918797706</v>
       </c>
-      <c r="P20">
+      <c r="R21">
         <v>2.7965170551602199E-2</v>
       </c>
-      <c r="Q20">
+      <c r="S21">
         <v>1.78331626731612E-2</v>
       </c>
-      <c r="R20">
+      <c r="T21">
         <v>1.4619319839582E-2</v>
       </c>
-      <c r="S20">
+      <c r="U21">
         <v>1.6978147552317802E-2</v>
       </c>
-      <c r="T20">
+      <c r="V21">
         <v>1.46592501539541E-2</v>
       </c>
-      <c r="U20">
+      <c r="W21">
         <v>1.5317532289652399E-2</v>
       </c>
-      <c r="V20">
+      <c r="X21">
         <v>3.57745400118165E-2</v>
       </c>
-      <c r="W20">
+      <c r="Y21">
         <v>3.6172706410781602E-2</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>3.3420702553077399E-4</v>
       </c>
-      <c r="C21">
+      <c r="E22">
         <v>9.3595523282525802E-4</v>
       </c>
-      <c r="D21">
+      <c r="F22">
         <v>3.6420614605757401E-3</v>
       </c>
-      <c r="E21">
+      <c r="G22">
         <v>7.34138703359381E-4</v>
       </c>
-      <c r="F21">
+      <c r="H22">
         <v>4.6607193723395002E-3</v>
       </c>
-      <c r="G21">
+      <c r="I22">
         <v>1.0541242394104E-2</v>
       </c>
-      <c r="H21">
+      <c r="J22">
         <v>5.19206091943227E-3</v>
       </c>
-      <c r="I21">
+      <c r="K22">
         <v>2.7283901343993101E-2</v>
       </c>
-      <c r="J21">
+      <c r="L22">
         <v>1.93914093197671E-2</v>
       </c>
-      <c r="K21">
+      <c r="M22">
         <v>4.2935006229011398E-2</v>
       </c>
-      <c r="L21">
+      <c r="N22">
         <v>6.3835069224964805E-2</v>
       </c>
-      <c r="M21">
+      <c r="O22">
         <v>8.8386064796165106E-2</v>
       </c>
-      <c r="N21">
+      <c r="P22">
         <v>6.5252521712554204E-2</v>
       </c>
-      <c r="O21">
+      <c r="Q22">
         <v>5.8166612444608898E-2</v>
       </c>
-      <c r="P21">
+      <c r="R22">
         <v>0.14700180657264</v>
       </c>
-      <c r="Q21">
+      <c r="S22">
         <v>5.4669558748403402E-2</v>
       </c>
-      <c r="R21">
+      <c r="T22">
         <v>2.9684628323953001E-2</v>
       </c>
-      <c r="S21">
+      <c r="U22">
         <v>3.5846574914910001E-2</v>
       </c>
-      <c r="T21">
+      <c r="V22">
         <v>6.0471272396982301E-2</v>
       </c>
-      <c r="U21">
+      <c r="W22">
         <v>6.4527119597868401E-2</v>
       </c>
-      <c r="V21">
+      <c r="X22">
         <v>0.110563901469705</v>
       </c>
-      <c r="W21">
+      <c r="Y22">
         <v>0.105944167796306</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>6.3539228057592601E-2</v>
       </c>
-      <c r="C22">
+      <c r="E23">
         <v>4.0829112054641202E-2</v>
       </c>
-      <c r="D22">
+      <c r="F23">
         <v>2.0615231102247E-2</v>
       </c>
-      <c r="E22">
+      <c r="G23">
         <v>9.9773680468247694E-2</v>
       </c>
-      <c r="F22">
+      <c r="H23">
         <v>5.48125532630723E-2</v>
       </c>
-      <c r="G22">
+      <c r="I23">
         <v>5.63290941323056E-2</v>
       </c>
-      <c r="H22">
+      <c r="J23">
         <v>8.2009476433877807E-2</v>
       </c>
-      <c r="I22">
+      <c r="K23">
         <v>3.3419691325091899E-2</v>
       </c>
-      <c r="J22">
+      <c r="L23">
         <v>5.93747961548695E-2</v>
       </c>
-      <c r="K22">
+      <c r="M23">
         <v>3.0685139898669899E-2</v>
       </c>
-      <c r="L22">
+      <c r="N23">
         <v>3.0128521441664901E-2</v>
       </c>
-      <c r="M22">
+      <c r="O23">
         <v>5.7069063021573697E-2</v>
       </c>
-      <c r="N22">
+      <c r="P23">
         <v>6.42462325963018E-2</v>
       </c>
-      <c r="O22">
+      <c r="Q23">
         <v>4.4411004763436401E-2</v>
       </c>
-      <c r="P22">
+      <c r="R23">
         <v>4.85314695521755E-2</v>
       </c>
-      <c r="Q22">
+      <c r="S23">
         <v>2.61621098418575E-2</v>
       </c>
-      <c r="R22">
+      <c r="T23">
         <v>2.6856079626597699E-2</v>
       </c>
-      <c r="S22">
+      <c r="U23">
         <v>2.9704977560628499E-2</v>
       </c>
-      <c r="T22">
+      <c r="V23">
         <v>2.60669850684885E-2</v>
       </c>
-      <c r="U22">
+      <c r="W23">
         <v>3.3610795743109698E-2</v>
       </c>
-      <c r="V22">
+      <c r="X23">
         <v>3.9071498633835099E-2</v>
       </c>
-      <c r="W22">
+      <c r="Y23">
         <v>3.2753259259715402E-2</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>1.6571873447154599E-2</v>
       </c>
-      <c r="C23">
+      <c r="E24">
         <v>8.1431180024844105E-2</v>
       </c>
-      <c r="D23">
+      <c r="F24">
         <v>0.34214216348439502</v>
       </c>
-      <c r="E23">
+      <c r="G24">
         <v>3.60710803178462E-3</v>
       </c>
-      <c r="F23">
+      <c r="H24">
         <v>0.123063397427859</v>
       </c>
-      <c r="G23">
+      <c r="I24">
         <v>0.13939265220928901</v>
       </c>
-      <c r="H23">
+      <c r="J24">
         <v>4.4711414423696597E-3</v>
       </c>
-      <c r="I23">
+      <c r="K24">
         <v>1.8657029139519999E-3</v>
       </c>
-      <c r="J23">
+      <c r="L24">
         <v>8.5985480780086707E-2</v>
       </c>
-      <c r="K23">
+      <c r="M24">
         <v>8.0249909318210702E-4</v>
       </c>
-      <c r="L23">
+      <c r="N24">
         <v>1.1944144214901699E-2</v>
       </c>
-      <c r="M23">
+      <c r="O24">
         <v>4.93875880106552E-3</v>
       </c>
-      <c r="N23">
+      <c r="P24">
         <v>5.5989140326019099E-3</v>
       </c>
-      <c r="O23">
+      <c r="Q24">
         <v>9.2668867275806394E-2</v>
       </c>
-      <c r="P23">
+      <c r="R24">
         <v>1.1449835988583699E-2</v>
       </c>
-      <c r="Q23">
+      <c r="S24">
         <v>5.7683136505127502E-3</v>
       </c>
-      <c r="R23">
+      <c r="T24">
         <v>5.1026994226903303E-3</v>
       </c>
-      <c r="S23">
+      <c r="U24">
         <v>4.8793380713219297E-3</v>
       </c>
-      <c r="T23">
+      <c r="V24">
         <v>1.04490041717385E-2</v>
       </c>
-      <c r="U23">
+      <c r="W24">
         <v>1.40422153072362E-2</v>
       </c>
-      <c r="V23">
+      <c r="X24">
         <v>2.4217656810424801E-2</v>
       </c>
-      <c r="W23">
+      <c r="Y24">
         <v>9.6070533981994603E-3</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>7.23204061491189E-3</v>
       </c>
-      <c r="C24">
+      <c r="E25">
         <v>1.9928030294737501E-2</v>
       </c>
-      <c r="D24">
+      <c r="F25">
         <v>6.12137134199255E-2</v>
       </c>
-      <c r="E24">
+      <c r="G25">
         <v>1.1471933770037499E-2</v>
       </c>
-      <c r="F24">
+      <c r="H25">
         <v>4.2085154087813499E-2</v>
       </c>
-      <c r="G24">
+      <c r="I25">
         <v>9.5672042102418697E-2</v>
       </c>
-      <c r="H24">
+      <c r="J25">
         <v>1.36531691838752E-2</v>
       </c>
-      <c r="I24">
+      <c r="K25">
         <v>8.48760995689158E-3</v>
       </c>
-      <c r="J24">
+      <c r="L25">
         <v>5.0874684107793701E-2</v>
       </c>
-      <c r="K24">
+      <c r="M25">
         <v>2.22696248440735E-2</v>
       </c>
-      <c r="L24">
+      <c r="N25">
         <v>0.11111290708343299</v>
       </c>
-      <c r="M24">
+      <c r="O25">
         <v>3.5647959529850101E-2</v>
       </c>
-      <c r="N24">
+      <c r="P25">
         <v>4.3950940717394499E-3</v>
       </c>
-      <c r="O24">
+      <c r="Q25">
         <v>5.2385738114195703E-2</v>
       </c>
-      <c r="P24">
+      <c r="R25">
         <v>1.90178986096485E-2</v>
       </c>
-      <c r="Q24">
+      <c r="S25">
         <v>9.4484772373014794E-2</v>
       </c>
-      <c r="R24">
+      <c r="T25">
         <v>2.7011395467930199E-2</v>
       </c>
-      <c r="S24">
+      <c r="U25">
         <v>2.2642309250764599E-2</v>
       </c>
-      <c r="T24">
+      <c r="V25">
         <v>8.7822520501980403E-2</v>
       </c>
-      <c r="U24">
+      <c r="W25">
         <v>0.103910184990535</v>
       </c>
-      <c r="V24">
+      <c r="X25">
         <v>6.7290200972483394E-2</v>
       </c>
-      <c r="W24">
+      <c r="Y25">
         <v>4.1391016651946097E-2</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>2.0412067865343001E-2</v>
       </c>
-      <c r="C25">
+      <c r="E26">
         <v>2.1624208449129202E-2</v>
       </c>
-      <c r="D25">
+      <c r="F26">
         <v>6.8135695986217297E-3</v>
       </c>
-      <c r="E25">
+      <c r="G26">
         <v>7.2235979213597395E-2</v>
       </c>
-      <c r="F25">
+      <c r="H26">
         <v>5.8185563724766097E-2</v>
       </c>
-      <c r="G25">
+      <c r="I26">
         <v>5.5835968064858597E-2</v>
       </c>
-      <c r="H25">
+      <c r="J26">
         <v>8.0426623005147593E-2</v>
       </c>
-      <c r="I25">
+      <c r="K26">
         <v>4.9000431064005298E-2</v>
       </c>
-      <c r="J25">
+      <c r="L26">
         <v>4.14870813591132E-2</v>
       </c>
-      <c r="K25">
+      <c r="M26">
         <v>8.3162098448314306E-2</v>
       </c>
-      <c r="L25">
+      <c r="N26">
         <v>4.6402190551289899E-2</v>
       </c>
-      <c r="M25">
+      <c r="O26">
         <v>6.4486512415361394E-2</v>
       </c>
-      <c r="N25">
+      <c r="P26">
         <v>3.8726503841782701E-2</v>
       </c>
-      <c r="O25">
+      <c r="Q26">
         <v>5.9614971960069998E-2</v>
       </c>
-      <c r="P25">
+      <c r="R26">
         <v>5.5188814771438999E-2</v>
       </c>
-      <c r="Q25">
+      <c r="S26">
         <v>3.8042682780043101E-2</v>
       </c>
-      <c r="R25">
+      <c r="T26">
         <v>4.2736306815194899E-2</v>
       </c>
-      <c r="S25">
+      <c r="U26">
         <v>3.7815817943221003E-2</v>
       </c>
-      <c r="T25">
+      <c r="V26">
         <v>2.75178215048127E-2</v>
       </c>
-      <c r="U25">
+      <c r="W26">
         <v>2.4583917110803401E-2</v>
       </c>
-      <c r="V25">
+      <c r="X26">
         <v>2.84694815224928E-2</v>
       </c>
-      <c r="W25">
+      <c r="Y26">
         <v>4.7231387990592802E-2</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
         <v>6.5935878594999502E-6</v>
       </c>
-      <c r="C26">
+      <c r="E27">
         <v>3.8796287726082499E-3</v>
       </c>
-      <c r="D26">
+      <c r="F27">
         <v>0.44505522444989498</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G27" s="1">
         <v>2.05065505557154E-5</v>
       </c>
-      <c r="F26">
+      <c r="H27">
         <v>0.111349183445454</v>
       </c>
-      <c r="G26">
+      <c r="I27">
         <v>0.16109047300898299</v>
       </c>
-      <c r="H26">
+      <c r="J27">
         <v>5.10504125555284E-4</v>
       </c>
-      <c r="I26">
+      <c r="K27">
         <v>3.3425315707444098E-4</v>
       </c>
-      <c r="J26">
+      <c r="L27">
         <v>5.6658624912484801E-2</v>
       </c>
-      <c r="K26">
+      <c r="M27">
         <v>1.0235119154689599E-3</v>
       </c>
-      <c r="L26">
+      <c r="N27">
         <v>1.8486220418943999E-2</v>
       </c>
-      <c r="M26">
+      <c r="O27">
         <v>4.2396903011200603E-3</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P27" s="1">
         <v>2.3579916939329101E-5</v>
       </c>
-      <c r="O26">
+      <c r="Q27">
         <v>9.5391314178509698E-2</v>
       </c>
-      <c r="P26">
+      <c r="R27">
         <v>2.1869483809002398E-2</v>
       </c>
-      <c r="Q26">
+      <c r="S27">
         <v>6.3455214102640404E-3</v>
       </c>
-      <c r="R26">
+      <c r="T27">
         <v>1.1318271777041901E-3</v>
       </c>
-      <c r="S26">
+      <c r="U27">
         <v>3.72792767471031E-3</v>
       </c>
-      <c r="T26">
+      <c r="V27">
         <v>4.4950685909257897E-3</v>
       </c>
-      <c r="U26">
+      <c r="W27">
         <v>1.1162811133946101E-2</v>
       </c>
-      <c r="V26">
+      <c r="X27">
         <v>4.6438609441400496E-3</v>
       </c>
-      <c r="W26">
+      <c r="Y27">
         <v>4.85541905178557E-2</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>3.2642512010891297E-4</v>
       </c>
-      <c r="C27">
+      <c r="E28">
         <v>8.95942558997246E-4</v>
       </c>
-      <c r="D27">
+      <c r="F28">
         <v>2.2161659269127401E-3</v>
       </c>
-      <c r="E27">
+      <c r="G28">
         <v>1.08132855147622E-3</v>
       </c>
-      <c r="F27">
+      <c r="H28">
         <v>2.05424167164606E-3</v>
       </c>
-      <c r="G27">
+      <c r="I28">
         <v>4.7002365771232398E-3</v>
       </c>
-      <c r="H27">
+      <c r="J28">
         <v>4.0508696115500904E-3</v>
       </c>
-      <c r="I27">
+      <c r="K28">
         <v>2.2688303753589899E-2</v>
       </c>
-      <c r="J27">
+      <c r="L28">
         <v>3.4415664409371402E-3</v>
       </c>
-      <c r="K27">
+      <c r="M28">
         <v>5.1990283671047799E-2</v>
       </c>
-      <c r="L27">
+      <c r="N28">
         <v>0.12354649650696101</v>
       </c>
-      <c r="M27">
+      <c r="O28">
         <v>4.91213663600433E-2</v>
       </c>
-      <c r="N27">
+      <c r="P28">
         <v>1.16562065527402E-2</v>
       </c>
-      <c r="O27">
+      <c r="Q28">
         <v>1.17462855032284E-2</v>
       </c>
-      <c r="P27">
+      <c r="R28">
         <v>4.7929933063029902E-2</v>
       </c>
-      <c r="Q27">
+      <c r="S28">
         <v>0.111046382078164</v>
       </c>
-      <c r="R27">
+      <c r="T28">
         <v>6.3464334123628494E-2</v>
       </c>
-      <c r="S27">
+      <c r="U28">
         <v>4.8481863483460397E-2</v>
       </c>
-      <c r="T27">
+      <c r="V28">
         <v>0.108601093186075</v>
       </c>
-      <c r="U27">
+      <c r="W28">
         <v>0.10611761940359001</v>
       </c>
-      <c r="V27">
+      <c r="X28">
         <v>0.132817619690207</v>
       </c>
-      <c r="W27">
+      <c r="Y28">
         <v>9.2025436165483407E-2</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>1.12512132007924E-2</v>
       </c>
-      <c r="C28">
+      <c r="E29">
         <v>1.30345705123031E-2</v>
       </c>
-      <c r="D28">
+      <c r="F29">
         <v>2.9057681433337999E-2</v>
       </c>
-      <c r="E28">
+      <c r="G29">
         <v>1.0597642412181901E-2</v>
       </c>
-      <c r="F28">
+      <c r="H29">
         <v>3.2509004523269401E-2</v>
       </c>
-      <c r="G28">
+      <c r="I29">
         <v>6.4671465305610298E-2</v>
       </c>
-      <c r="H28">
+      <c r="J29">
         <v>1.27505438503248E-2</v>
       </c>
-      <c r="I28">
+      <c r="K29">
         <v>1.42451460478652E-2</v>
       </c>
-      <c r="J28">
+      <c r="L29">
         <v>4.9859708411943503E-2</v>
       </c>
-      <c r="K28">
+      <c r="M29">
         <v>4.0143532022768103E-2</v>
       </c>
-      <c r="L28">
+      <c r="N29">
         <v>0.100356255305529</v>
       </c>
-      <c r="M28">
+      <c r="O29">
         <v>4.7822489866452697E-2</v>
       </c>
-      <c r="N28">
+      <c r="P29">
         <v>8.2289826271516996E-3</v>
       </c>
-      <c r="O28">
+      <c r="Q29">
         <v>9.4034718599527597E-2</v>
       </c>
-      <c r="P28">
+      <c r="R29">
         <v>2.59280151464568E-2</v>
       </c>
-      <c r="Q28">
+      <c r="S29">
         <v>8.1777488384149596E-2</v>
       </c>
-      <c r="R28">
+      <c r="T29">
         <v>3.0432826576426299E-2</v>
       </c>
-      <c r="S28">
+      <c r="U29">
         <v>2.82514101407263E-2</v>
       </c>
-      <c r="T28">
+      <c r="V29">
         <v>8.74871548182517E-2</v>
       </c>
-      <c r="U28">
+      <c r="W29">
         <v>9.3937021932232606E-2</v>
       </c>
-      <c r="V28">
+      <c r="X29">
         <v>6.7628310217772006E-2</v>
       </c>
-      <c r="W28">
+      <c r="Y29">
         <v>5.59948186649269E-2</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>6.3882137465346399E-4</v>
       </c>
-      <c r="C29">
+      <c r="E30">
         <v>3.6723847362941597E-2</v>
       </c>
-      <c r="D29">
+      <c r="F30">
         <v>0.61183753161885102</v>
       </c>
-      <c r="E29">
+      <c r="G30">
         <v>8.3617419151913201E-4</v>
       </c>
-      <c r="F29">
+      <c r="H30">
         <v>0.13763062015358299</v>
       </c>
-      <c r="G29">
+      <c r="I30">
         <v>6.2497281072680697E-2</v>
       </c>
-      <c r="H29">
+      <c r="J30">
         <v>3.0877127619208602E-4</v>
       </c>
-      <c r="I29">
+      <c r="K30">
         <v>1.83917416955278E-4</v>
       </c>
-      <c r="J29">
+      <c r="L30">
         <v>3.3475761412922599E-2</v>
       </c>
-      <c r="K29">
+      <c r="M30">
         <v>7.2630116697334503E-4</v>
       </c>
-      <c r="L29">
+      <c r="N30">
         <v>7.2716552196860603E-3</v>
       </c>
-      <c r="M29">
+      <c r="O30">
         <v>5.2956088971580395E-4</v>
       </c>
-      <c r="N29">
+      <c r="P30">
         <v>2.0203203568168701E-4</v>
       </c>
-      <c r="O29">
+      <c r="Q30">
         <v>3.5945007664695501E-2</v>
       </c>
-      <c r="P29">
+      <c r="R30">
         <v>9.3537241053667504E-4</v>
       </c>
-      <c r="Q29">
+      <c r="S30">
         <v>1.89092623641887E-3</v>
       </c>
-      <c r="R29">
+      <c r="T30">
         <v>1.7376157048952E-3</v>
       </c>
-      <c r="S29">
+      <c r="U30">
         <v>9.5312908148527196E-3</v>
       </c>
-      <c r="T29">
+      <c r="V30">
         <v>2.1254010372388599E-3</v>
       </c>
-      <c r="U29">
+      <c r="W30">
         <v>2.6400515132481901E-3</v>
       </c>
-      <c r="V29">
+      <c r="X30">
         <v>7.1985043538865898E-3</v>
       </c>
-      <c r="W29">
+      <c r="Y30">
         <v>4.5133555071871299E-2</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>7.8311674884208801E-3</v>
       </c>
-      <c r="C30">
+      <c r="E31">
         <v>1.28728220805586E-2</v>
       </c>
-      <c r="D30">
+      <c r="F31">
         <v>6.2438326172886201E-2</v>
       </c>
-      <c r="E30">
+      <c r="G31">
         <v>1.49130675659282E-2</v>
       </c>
-      <c r="F30">
+      <c r="H31">
         <v>2.8404524992425E-2</v>
       </c>
-      <c r="G30">
+      <c r="I31">
         <v>2.6375655439220599E-2</v>
       </c>
-      <c r="H30">
+      <c r="J31">
         <v>2.09064275028642E-2</v>
       </c>
-      <c r="I30">
+      <c r="K31">
         <v>0.136591358496503</v>
       </c>
-      <c r="J30">
+      <c r="L31">
         <v>3.0816949991630298E-2</v>
       </c>
-      <c r="K30">
+      <c r="M31">
         <v>8.4743108431479197E-2</v>
       </c>
-      <c r="L30">
+      <c r="N31">
         <v>4.3756203576661698E-2</v>
       </c>
-      <c r="M30">
+      <c r="O31">
         <v>4.1409660263935E-2</v>
       </c>
-      <c r="N30">
+      <c r="P31">
         <v>2.5634504360812702E-2</v>
       </c>
-      <c r="O30">
+      <c r="Q31">
         <v>4.3103854566573403E-2</v>
       </c>
-      <c r="P30">
+      <c r="R31">
         <v>3.24797501200157E-2</v>
       </c>
-      <c r="Q30">
+      <c r="S31">
         <v>7.1778286145842696E-2</v>
       </c>
-      <c r="R30">
+      <c r="T31">
         <v>6.6741853742104798E-2</v>
       </c>
-      <c r="S30">
+      <c r="U31">
         <v>6.5854793531412395E-2</v>
       </c>
-      <c r="T30">
+      <c r="V31">
         <v>6.2307331317256603E-2</v>
       </c>
-      <c r="U30">
+      <c r="W31">
         <v>2.8448656513559999E-2</v>
       </c>
-      <c r="V30">
+      <c r="X31">
         <v>3.7788587184234099E-2</v>
       </c>
-      <c r="W30">
+      <c r="Y31">
         <v>5.4803110515674699E-2</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.9702160079734699E-3</v>
+      </c>
+      <c r="E32">
+        <v>2.6715674358784799E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.42588719659761498</v>
+      </c>
+      <c r="G32">
+        <v>1.63566009908899E-3</v>
+      </c>
+      <c r="H32">
+        <v>0.25582874316946203</v>
+      </c>
+      <c r="I32">
+        <v>0.14306081054375699</v>
+      </c>
+      <c r="J32">
+        <v>1.23082265886807E-3</v>
+      </c>
+      <c r="K32">
+        <v>1.12182806517361E-4</v>
+      </c>
+      <c r="L32">
+        <v>2.19264558985677E-2</v>
+      </c>
+      <c r="M32">
+        <v>3.0219510488584301E-4</v>
+      </c>
+      <c r="N32">
+        <v>3.1821129940211898E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.0599051914074501E-4</v>
+      </c>
+      <c r="P32">
+        <v>1.96067157258164E-4</v>
+      </c>
+      <c r="Q32">
+        <v>1.44871772286886E-2</v>
+      </c>
+      <c r="R32">
+        <v>2.0396030290942202E-3</v>
+      </c>
+      <c r="S32">
+        <v>1.12030250339768E-3</v>
+      </c>
+      <c r="T32">
+        <v>4.6362494239570302E-4</v>
+      </c>
+      <c r="U32">
+        <v>1.8842981544542E-3</v>
+      </c>
+      <c r="V32">
+        <v>3.7114306052968599E-3</v>
+      </c>
+      <c r="W32">
+        <v>8.6921841352863797E-3</v>
+      </c>
+      <c r="X32">
+        <v>1.5176232148583499E-2</v>
+      </c>
+      <c r="Y32">
+        <v>4.1632002390672398E-2</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>5.8236266896956497E-4</v>
       </c>
-      <c r="C31">
+      <c r="E33">
         <v>3.4445450825266698E-2</v>
       </c>
-      <c r="D31">
+      <c r="F33">
         <v>0.105870061420185</v>
       </c>
-      <c r="E31">
+      <c r="G33">
         <v>8.8693544796171399E-4</v>
       </c>
-      <c r="F31">
+      <c r="H33">
         <v>8.3399115459755604E-2</v>
       </c>
-      <c r="G31">
+      <c r="I33">
         <v>4.1116081313251097E-2</v>
       </c>
-      <c r="H31">
+      <c r="J33">
         <v>1.4622306900585601E-2</v>
       </c>
-      <c r="I31">
+      <c r="K33">
         <v>2.22009193566086E-2</v>
       </c>
-      <c r="J31">
+      <c r="L33">
         <v>2.6386740169744599E-2</v>
       </c>
-      <c r="K31">
+      <c r="M33">
         <v>2.2942357346818001E-2</v>
       </c>
-      <c r="L31">
+      <c r="N33">
         <v>5.71057474908791E-2</v>
       </c>
-      <c r="M31">
+      <c r="O33">
         <v>4.53229170232681E-2</v>
       </c>
-      <c r="N31">
+      <c r="P33">
         <v>1.2768604085840501E-2</v>
       </c>
-      <c r="O31">
+      <c r="Q33">
         <v>6.11487892931315E-2</v>
       </c>
-      <c r="P31">
+      <c r="R33">
         <v>5.9255933026582601E-2</v>
       </c>
-      <c r="Q31">
+      <c r="S33">
         <v>5.3731411442518501E-2</v>
       </c>
-      <c r="R31">
+      <c r="T33">
         <v>3.9078611709095899E-2</v>
       </c>
-      <c r="S31">
+      <c r="U33">
         <v>4.6238689489997299E-2</v>
       </c>
-      <c r="T31">
+      <c r="V33">
         <v>6.4215980777074799E-2</v>
       </c>
-      <c r="U31">
+      <c r="W33">
         <v>5.6049454258538703E-2</v>
       </c>
-      <c r="V31">
+      <c r="X33">
         <v>6.5969085471842701E-2</v>
       </c>
-      <c r="W31">
+      <c r="Y33">
         <v>8.6662445022083506E-2</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>2.4918201179445301E-3</v>
       </c>
-      <c r="C32">
+      <c r="E34">
         <v>1.8568867682331E-2</v>
       </c>
-      <c r="D32">
+      <c r="F34">
         <v>0.38243047301406802</v>
       </c>
-      <c r="E32">
+      <c r="G34">
         <v>4.5631228566772998E-4</v>
       </c>
-      <c r="F32">
+      <c r="H34">
         <v>8.3540012885947798E-2</v>
       </c>
-      <c r="G32">
+      <c r="I34">
         <v>8.1275776032177297E-2</v>
       </c>
-      <c r="H32">
+      <c r="J34">
         <v>2.7383999673825702E-3</v>
       </c>
-      <c r="I32">
+      <c r="K34">
         <v>1.01702557592992E-3</v>
       </c>
-      <c r="J32">
+      <c r="L34">
         <v>8.3655867446443002E-2</v>
       </c>
-      <c r="K32">
+      <c r="M34">
         <v>3.3349796879808299E-3</v>
       </c>
-      <c r="L32">
+      <c r="N34">
         <v>4.7328799864191596E-3</v>
       </c>
-      <c r="M32">
+      <c r="O34">
         <v>4.9790106116718302E-3</v>
       </c>
-      <c r="N32">
+      <c r="P34">
         <v>1.7055821267010201E-3</v>
       </c>
-      <c r="O32">
+      <c r="Q34">
         <v>0.13028373939615301</v>
       </c>
-      <c r="P32">
+      <c r="R34">
         <v>7.6063078595052402E-2</v>
       </c>
-      <c r="Q32">
+      <c r="S34">
         <v>8.9222366157924692E-3</v>
       </c>
-      <c r="R32">
+      <c r="T34">
         <v>4.41355963906424E-3</v>
       </c>
-      <c r="S32">
+      <c r="U34">
         <v>1.5857574064527199E-2</v>
       </c>
-      <c r="T32">
+      <c r="V34">
         <v>4.5693403175593502E-3</v>
       </c>
-      <c r="U32">
+      <c r="W34">
         <v>2.6195111349687199E-3</v>
       </c>
-      <c r="V32">
+      <c r="X34">
         <v>4.24686568176324E-2</v>
       </c>
-      <c r="W32">
+      <c r="Y34">
         <v>4.3875295998585098E-2</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>5.8811288935776097E-3</v>
       </c>
-      <c r="C33">
+      <c r="E35">
         <v>1.26288461495262E-2</v>
       </c>
-      <c r="D33">
+      <c r="F35">
         <v>4.46400571132132E-2</v>
       </c>
-      <c r="E33">
+      <c r="G35">
         <v>8.3477537171009805E-3</v>
       </c>
-      <c r="F33">
+      <c r="H35">
         <v>4.3734551955789701E-2</v>
       </c>
-      <c r="G33">
+      <c r="I35">
         <v>7.6910617407205506E-2</v>
       </c>
-      <c r="H33">
+      <c r="J35">
         <v>2.13943990937491E-2</v>
       </c>
-      <c r="I33">
+      <c r="K35">
         <v>1.3046927574182699E-2</v>
       </c>
-      <c r="J33">
+      <c r="L35">
         <v>5.1841258050887802E-2</v>
       </c>
-      <c r="K33">
+      <c r="M35">
         <v>4.5031166281824297E-2</v>
       </c>
-      <c r="L33">
+      <c r="N35">
         <v>7.5932936972239698E-2</v>
       </c>
-      <c r="M33">
+      <c r="O35">
         <v>4.4294412067202603E-2</v>
       </c>
-      <c r="N33">
+      <c r="P35">
         <v>1.2966216467419399E-2</v>
       </c>
-      <c r="O33">
+      <c r="Q35">
         <v>7.0759022115067099E-2</v>
       </c>
-      <c r="P33">
+      <c r="R35">
         <v>3.6318287841855201E-2</v>
       </c>
-      <c r="Q33">
+      <c r="S35">
         <v>8.71940233396616E-2</v>
       </c>
-      <c r="R33">
+      <c r="T35">
         <v>4.6531922023798397E-2</v>
       </c>
-      <c r="S33">
+      <c r="U35">
         <v>3.6734933681698403E-2</v>
       </c>
-      <c r="T33">
+      <c r="V35">
         <v>7.8675048611952E-2</v>
       </c>
-      <c r="U33">
+      <c r="W35">
         <v>7.8303249790891399E-2</v>
       </c>
-      <c r="V33">
+      <c r="X35">
         <v>5.7195569556000803E-2</v>
       </c>
-      <c r="W33">
+      <c r="Y35">
         <v>5.16376712951565E-2</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>3.04296223463521E-2</v>
       </c>
-      <c r="C34">
+      <c r="E36">
         <v>0.139162713111775</v>
       </c>
-      <c r="D34">
+      <c r="F36">
         <v>0.73905068298061105</v>
       </c>
-      <c r="E34">
+      <c r="G36">
         <v>2.7807495550581402E-4</v>
       </c>
-      <c r="F34">
+      <c r="H36">
         <v>1.9098884579440999E-2</v>
       </c>
-      <c r="G34">
+      <c r="I36">
         <v>1.7795944127675899E-2</v>
       </c>
-      <c r="H34">
+      <c r="J36">
         <v>4.7900546321383698E-4</v>
       </c>
-      <c r="I34">
+      <c r="K36">
         <v>1.7241897419380901E-4</v>
       </c>
-      <c r="J34">
+      <c r="L36">
         <v>1.5841636656663199E-2</v>
       </c>
-      <c r="K34">
+      <c r="M36">
         <v>3.1901676944590601E-4</v>
       </c>
-      <c r="L34">
+      <c r="N36">
         <v>9.8797780101116096E-4</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O36" s="1">
         <v>6.4060304421074198E-5</v>
       </c>
-      <c r="N34">
+      <c r="P36">
         <v>1.6462817831518499E-4</v>
       </c>
-      <c r="O34">
+      <c r="Q36">
         <v>2.35056468085959E-2</v>
       </c>
-      <c r="P34">
+      <c r="R36">
         <v>6.8928423944278902E-4</v>
       </c>
-      <c r="Q34">
+      <c r="S36">
         <v>1.0233961852922501E-3</v>
       </c>
-      <c r="R34">
+      <c r="T36">
         <v>1.29604410355894E-3</v>
       </c>
-      <c r="S34">
+      <c r="U36">
         <v>1.90286558458092E-3</v>
       </c>
-      <c r="T34">
+      <c r="V36">
         <v>9.6100904945315595E-4</v>
       </c>
-      <c r="U34">
+      <c r="W36">
         <v>1.7178848716477299E-3</v>
       </c>
-      <c r="V34">
+      <c r="X36">
         <v>3.0917628015326498E-3</v>
       </c>
-      <c r="W34">
+      <c r="Y36">
         <v>1.96744010727024E-3</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.4000479777357499E-5</v>
+      </c>
+      <c r="E37">
+        <v>6.2817531114408697E-4</v>
+      </c>
+      <c r="F37">
+        <v>5.7353062409509501E-3</v>
+      </c>
+      <c r="G37">
+        <v>1.5179196070223101E-4</v>
+      </c>
+      <c r="H37">
+        <v>2.3293309336996E-3</v>
+      </c>
+      <c r="I37">
+        <v>2.3419589737411202E-3</v>
+      </c>
+      <c r="J37">
+        <v>8.1549474817190295E-4</v>
+      </c>
+      <c r="K37">
+        <v>1.33631248046385E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.48994668184112E-3</v>
+      </c>
+      <c r="M37">
+        <v>3.4394194298319199E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.13969372058110699</v>
+      </c>
+      <c r="O37">
+        <v>3.42257722577895E-2</v>
+      </c>
+      <c r="P37">
+        <v>1.42496156125259E-3</v>
+      </c>
+      <c r="Q37">
+        <v>7.2608274504265798E-3</v>
+      </c>
+      <c r="R37">
+        <v>1.9140831248217999E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.13767097269720799</v>
+      </c>
+      <c r="T37">
+        <v>2.73508907865373E-2</v>
+      </c>
+      <c r="U37">
+        <v>3.9715441705141401E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.15728291918739401</v>
+      </c>
+      <c r="W37">
+        <v>0.132874534475794</v>
+      </c>
+      <c r="X37">
+        <v>0.119366870747753</v>
+      </c>
+      <c r="Y37">
+        <v>0.122648932868392</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>5.54185406082724E-2</v>
       </c>
-      <c r="C35">
+      <c r="E38">
         <v>0.117144090837663</v>
       </c>
-      <c r="D35">
+      <c r="F38">
         <v>0.135323928079148</v>
       </c>
-      <c r="E35">
+      <c r="G38">
         <v>2.0085340640989501E-2</v>
       </c>
-      <c r="F35">
+      <c r="H38">
         <v>8.4745605716070399E-2</v>
       </c>
-      <c r="G35">
+      <c r="I38">
         <v>5.3966409342433803E-2</v>
       </c>
-      <c r="H35">
+      <c r="J38">
         <v>1.5743463988001499E-2</v>
       </c>
-      <c r="I35">
+      <c r="K38">
         <v>1.47333130220886E-2</v>
       </c>
-      <c r="J35">
+      <c r="L38">
         <v>3.3437548015873599E-2</v>
       </c>
-      <c r="K35">
+      <c r="M38">
         <v>1.69556710066508E-2</v>
       </c>
-      <c r="L35">
+      <c r="N38">
         <v>4.64358055177592E-2</v>
       </c>
-      <c r="M35">
+      <c r="O38">
         <v>2.8751687057020501E-2</v>
       </c>
-      <c r="N35">
+      <c r="P38">
         <v>2.3990781972444499E-2</v>
       </c>
-      <c r="O35">
+      <c r="Q38">
         <v>4.3040271181143501E-2</v>
       </c>
-      <c r="P35">
+      <c r="R38">
         <v>3.5278400734425903E-2</v>
       </c>
-      <c r="Q35">
+      <c r="S38">
         <v>3.4229693085222501E-2</v>
       </c>
-      <c r="R35">
+      <c r="T38">
         <v>1.81526104053653E-2</v>
       </c>
-      <c r="S35">
+      <c r="U38">
         <v>1.6309426404489302E-2</v>
       </c>
-      <c r="T35">
+      <c r="V38">
         <v>5.2755258800967798E-2</v>
       </c>
-      <c r="U35">
+      <c r="W38">
         <v>5.8988734106479798E-2</v>
       </c>
-      <c r="V35">
+      <c r="X38">
         <v>6.3370882601477094E-2</v>
       </c>
-      <c r="W35">
+      <c r="Y38">
         <v>3.11425368760124E-2</v>
       </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>8.1707896071544606E-2</v>
       </c>
-      <c r="C36">
+      <c r="E39">
         <v>6.84506111785428E-2</v>
       </c>
-      <c r="D36">
+      <c r="F39">
         <v>7.2394201066546399E-2</v>
       </c>
-      <c r="E36">
+      <c r="G39">
         <v>4.80895691902379E-2</v>
       </c>
-      <c r="F36">
+      <c r="H39">
         <v>5.9348657540321197E-2</v>
       </c>
-      <c r="G36">
+      <c r="I39">
         <v>5.1259184839548597E-2</v>
       </c>
-      <c r="H36">
+      <c r="J39">
         <v>3.54396622392842E-2</v>
       </c>
-      <c r="I36">
+      <c r="K39">
         <v>2.9678841088590101E-2</v>
       </c>
-      <c r="J36">
+      <c r="L39">
         <v>4.1577349377678298E-2</v>
       </c>
-      <c r="K36">
+      <c r="M39">
         <v>3.05300524725544E-2</v>
       </c>
-      <c r="L36">
+      <c r="N39">
         <v>4.5870573359210097E-2</v>
       </c>
-      <c r="M36">
+      <c r="O39">
         <v>3.7735310756609103E-2</v>
       </c>
-      <c r="N36">
+      <c r="P39">
         <v>3.1624748305796098E-2</v>
       </c>
-      <c r="O36">
+      <c r="Q39">
         <v>4.4419956171055298E-2</v>
       </c>
-      <c r="P36">
+      <c r="R39">
         <v>3.5171906138528698E-2</v>
       </c>
-      <c r="Q36">
+      <c r="S39">
         <v>4.3247566791139599E-2</v>
       </c>
-      <c r="R36">
+      <c r="T39">
         <v>3.31437737327464E-2</v>
       </c>
-      <c r="S36">
+      <c r="U39">
         <v>3.4489536385216402E-2</v>
       </c>
-      <c r="T36">
+      <c r="V39">
         <v>4.4278315390991599E-2</v>
       </c>
-      <c r="U36">
+      <c r="W39">
         <v>4.6160908360802298E-2</v>
       </c>
-      <c r="V36">
+      <c r="X39">
         <v>4.7649275066896798E-2</v>
       </c>
-      <c r="W36">
+      <c r="Y39">
         <v>3.7732104476158997E-2</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>4.9053664069154498E-2</v>
       </c>
-      <c r="C37">
+      <c r="E40">
         <v>0.10479083014006001</v>
       </c>
-      <c r="D37">
+      <c r="F40">
         <v>0.183184918997957</v>
       </c>
-      <c r="E37">
+      <c r="G40">
         <v>2.16154339454761E-2</v>
       </c>
-      <c r="F37">
+      <c r="H40">
         <v>0.119042737941371</v>
       </c>
-      <c r="G37">
+      <c r="I40">
         <v>0.174267482308816</v>
       </c>
-      <c r="H37">
+      <c r="J40">
         <v>2.2514570320052701E-2</v>
       </c>
-      <c r="I37">
+      <c r="K40">
         <v>6.2006466920416703E-3</v>
       </c>
-      <c r="J37">
+      <c r="L40">
         <v>8.7752605298783301E-2</v>
       </c>
-      <c r="K37">
+      <c r="M40">
         <v>6.1106667491406096E-3</v>
       </c>
-      <c r="L37">
+      <c r="N40">
         <v>1.9147521125130001E-2</v>
       </c>
-      <c r="M37">
+      <c r="O40">
         <v>8.5560129597236408E-3</v>
       </c>
-      <c r="N37">
+      <c r="P40">
         <v>6.5730567621865299E-3</v>
       </c>
-      <c r="O37">
+      <c r="Q40">
         <v>7.5654220595377505E-2</v>
       </c>
-      <c r="P37">
+      <c r="R40">
         <v>1.1498538955725999E-2</v>
       </c>
-      <c r="Q37">
+      <c r="S40">
         <v>8.5544175974002993E-3</v>
       </c>
-      <c r="R37">
+      <c r="T40">
         <v>7.7625944975822899E-3</v>
       </c>
-      <c r="S37">
+      <c r="U40">
         <v>1.14110835369431E-2</v>
       </c>
-      <c r="T37">
+      <c r="V40">
         <v>1.13117702967365E-2</v>
       </c>
-      <c r="U37">
+      <c r="W40">
         <v>1.51393694572836E-2</v>
       </c>
-      <c r="V37">
+      <c r="X40">
         <v>2.9253134560482098E-2</v>
       </c>
-      <c r="W37">
+      <c r="Y40">
         <v>2.0604723192575398E-2</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>3.58967448382582E-2</v>
       </c>
-      <c r="C38">
+      <c r="E41">
         <v>5.6552770664129198E-2</v>
       </c>
-      <c r="D38">
+      <c r="F41">
         <v>5.2703617489413497E-2</v>
       </c>
-      <c r="E38">
+      <c r="G41">
         <v>3.5507125385681598E-2</v>
       </c>
-      <c r="F38">
+      <c r="H41">
         <v>5.5625349222328598E-2</v>
       </c>
-      <c r="G38">
+      <c r="I41">
         <v>5.2880833112263798E-2</v>
       </c>
-      <c r="H38">
+      <c r="J41">
         <v>5.1108596961453999E-2</v>
       </c>
-      <c r="I38">
+      <c r="K41">
         <v>3.9318915497990901E-2</v>
       </c>
-      <c r="J38">
+      <c r="L41">
         <v>4.6990622541152598E-2</v>
       </c>
-      <c r="K38">
+      <c r="M41">
         <v>3.8412408322645003E-2</v>
       </c>
-      <c r="L38">
+      <c r="N41">
         <v>4.11348447682124E-2</v>
       </c>
-      <c r="M38">
+      <c r="O41">
         <v>4.8229198153937301E-2</v>
       </c>
-      <c r="N38">
+      <c r="P41">
         <v>4.6573934542883201E-2</v>
       </c>
-      <c r="O38">
+      <c r="Q41">
         <v>5.3776847435538601E-2</v>
       </c>
-      <c r="P38">
+      <c r="R41">
         <v>5.1753178279473802E-2</v>
       </c>
-      <c r="Q38">
+      <c r="S41">
         <v>4.0682043083778298E-2</v>
       </c>
-      <c r="R38">
+      <c r="T41">
         <v>3.9444457428037802E-2</v>
       </c>
-      <c r="S38">
+      <c r="U41">
         <v>4.8326463606397203E-2</v>
       </c>
-      <c r="T38">
+      <c r="V41">
         <v>3.9716537353926697E-2</v>
       </c>
-      <c r="U38">
+      <c r="W41">
         <v>3.7866805847986802E-2</v>
       </c>
-      <c r="V38">
+      <c r="X41">
         <v>4.7520466246113502E-2</v>
       </c>
-      <c r="W38">
+      <c r="Y41">
         <v>3.9978239218397098E-2</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>2.8206819517724102E-4</v>
       </c>
-      <c r="C39">
+      <c r="E42">
         <v>7.9141125770205599E-4</v>
       </c>
-      <c r="D39">
+      <c r="F42">
         <v>6.3199487144367898E-3</v>
       </c>
-      <c r="E39">
+      <c r="G42">
         <v>8.2390579868987996E-4</v>
       </c>
-      <c r="F39">
+      <c r="H42">
         <v>4.0345204525164E-3</v>
       </c>
-      <c r="G39">
+      <c r="I42">
         <v>3.26740558253364E-3</v>
       </c>
-      <c r="H39">
+      <c r="J42">
         <v>2.5615547547161201E-3</v>
       </c>
-      <c r="I39">
+      <c r="K42">
         <v>2.6429553297342201E-2</v>
       </c>
-      <c r="J39">
+      <c r="L42">
         <v>3.4228871443061902E-3</v>
       </c>
-      <c r="K39">
+      <c r="M42">
         <v>8.7278310976023996E-2</v>
       </c>
-      <c r="L39">
+      <c r="N42">
         <v>0.12501601734930701</v>
       </c>
-      <c r="M39">
+      <c r="O42">
         <v>2.6260940179931101E-2</v>
       </c>
-      <c r="N39">
+      <c r="P42">
         <v>4.7708568424971896E-3</v>
       </c>
-      <c r="O39">
+      <c r="Q42">
         <v>9.7767827497106594E-3</v>
       </c>
-      <c r="P39">
+      <c r="R42">
         <v>3.6968225356607501E-2</v>
       </c>
-      <c r="Q39">
+      <c r="S42">
         <v>0.13370976052515701</v>
       </c>
-      <c r="R39">
+      <c r="T42">
         <v>5.3207446603845798E-2</v>
       </c>
-      <c r="S39">
+      <c r="U42">
         <v>4.2744008430267003E-2</v>
       </c>
-      <c r="T39">
+      <c r="V42">
         <v>0.12023393292066099</v>
       </c>
-      <c r="U39">
+      <c r="W42">
         <v>8.9087652553616906E-2</v>
       </c>
-      <c r="V39">
+      <c r="X42">
         <v>0.111837370915305</v>
       </c>
-      <c r="W39">
+      <c r="Y42">
         <v>0.111175439399649</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>2.77077180869145E-4</v>
       </c>
-      <c r="C40">
+      <c r="E43">
         <v>1.1257946505813099E-2</v>
       </c>
-      <c r="D40">
+      <c r="F43">
         <v>0.20689904269082601</v>
       </c>
-      <c r="E40">
+      <c r="G43">
         <v>3.1406635838682998E-4</v>
       </c>
-      <c r="F40">
+      <c r="H43">
         <v>0.13563261096211601</v>
       </c>
-      <c r="G40">
+      <c r="I43">
         <v>0.35829763259592501</v>
       </c>
-      <c r="H40">
+      <c r="J43">
         <v>1.2815341267386301E-4</v>
       </c>
-      <c r="I40" s="1">
+      <c r="K43" s="1">
         <v>2.7216672272311101E-5</v>
       </c>
-      <c r="J40">
+      <c r="L43">
         <v>0.16819291392326999</v>
       </c>
-      <c r="K40">
+      <c r="M43">
         <v>3.0827743471214402E-4</v>
       </c>
-      <c r="L40">
+      <c r="N43">
         <v>2.5808476919545398E-2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="O43" s="1">
         <v>2.51800505360749E-5</v>
       </c>
-      <c r="N40">
+      <c r="P43">
         <v>4.55881796366434E-4</v>
       </c>
-      <c r="O40">
+      <c r="Q43">
         <v>5.27748580396439E-2</v>
       </c>
-      <c r="P40">
+      <c r="R43">
         <v>4.0192237013524498E-3</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="S43" s="1">
         <v>3.0680282825116799E-5</v>
       </c>
-      <c r="R40" s="1">
+      <c r="T43" s="1">
         <v>-9.8118187957297196E-15</v>
       </c>
-      <c r="S40">
+      <c r="U43">
         <v>2.6987053972250298E-3</v>
       </c>
-      <c r="T40">
+      <c r="V43">
         <v>4.2315772096357499E-4</v>
       </c>
-      <c r="U40">
+      <c r="W43">
         <v>2.2437169343118698E-3</v>
       </c>
-      <c r="V40">
+      <c r="X43">
         <v>1.1227602560426601E-2</v>
       </c>
-      <c r="W40">
+      <c r="Y43">
         <v>1.8957578859949101E-2</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>5.6690336922795399E-4</v>
       </c>
-      <c r="C41">
+      <c r="E44">
         <v>9.1994233102776898E-4</v>
       </c>
-      <c r="D41">
+      <c r="F44">
         <v>1.19682476006026E-2</v>
       </c>
-      <c r="E41">
+      <c r="G44">
         <v>6.0061756355353805E-4</v>
       </c>
-      <c r="F41">
+      <c r="H44">
         <v>7.2256354355736702E-3</v>
       </c>
-      <c r="G41">
+      <c r="I44">
         <v>2.5420107330790299E-2</v>
       </c>
-      <c r="H41">
+      <c r="J44">
         <v>2.0502355089431499E-3</v>
       </c>
-      <c r="I41">
+      <c r="K44">
         <v>5.6840800965856798E-3</v>
       </c>
-      <c r="J41">
+      <c r="L44">
         <v>1.6716615272851999E-2</v>
       </c>
-      <c r="K41">
+      <c r="M44">
         <v>2.02993636024719E-2</v>
       </c>
-      <c r="L41">
+      <c r="N44">
         <v>0.126098026509642</v>
       </c>
-      <c r="M41">
+      <c r="O44">
         <v>3.5518315647248E-2</v>
       </c>
-      <c r="N41">
+      <c r="P44">
         <v>1.88798921086424E-3</v>
       </c>
-      <c r="O41">
+      <c r="Q44">
         <v>2.8340232956041999E-2</v>
       </c>
-      <c r="P41">
+      <c r="R44">
         <v>2.19663586308863E-2</v>
       </c>
-      <c r="Q41">
+      <c r="S44">
         <v>0.112905163029434</v>
       </c>
-      <c r="R41">
+      <c r="T44">
         <v>2.90001059585181E-2</v>
       </c>
-      <c r="S41">
+      <c r="U44">
         <v>2.9807062833799101E-2</v>
       </c>
-      <c r="T41">
+      <c r="V44">
         <v>0.18793135116909701</v>
       </c>
-      <c r="U41">
+      <c r="W44">
         <v>0.16118272487223301</v>
       </c>
-      <c r="V41">
+      <c r="X44">
         <v>0.101490790650476</v>
       </c>
-      <c r="W41">
+      <c r="Y44">
         <v>7.2420130420131706E-2</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>4.83726839597374E-2</v>
       </c>
-      <c r="C42">
+      <c r="E45">
         <v>2.9474198549796601E-2</v>
       </c>
-      <c r="D42">
+      <c r="F45">
         <v>4.2487762930072302E-2</v>
       </c>
-      <c r="E42">
+      <c r="G45">
         <v>5.4897595980751203E-2</v>
       </c>
-      <c r="F42">
+      <c r="H45">
         <v>3.7156735661223197E-2</v>
       </c>
-      <c r="G42">
+      <c r="I45">
         <v>5.3834443096494503E-2</v>
       </c>
-      <c r="H42">
+      <c r="J45">
         <v>5.5757926302425397E-2</v>
       </c>
-      <c r="I42">
+      <c r="K45">
         <v>3.7856300291255203E-2</v>
       </c>
-      <c r="J42">
+      <c r="L45">
         <v>6.7244665952675198E-2</v>
       </c>
-      <c r="K42">
+      <c r="M45">
         <v>3.8084430106284102E-2</v>
       </c>
-      <c r="L42">
+      <c r="N45">
         <v>3.4379755579309099E-2</v>
       </c>
-      <c r="M42">
+      <c r="O45">
         <v>5.6117040460277698E-2</v>
       </c>
-      <c r="N42">
+      <c r="P45">
         <v>6.5671190367474E-2</v>
       </c>
-      <c r="O42">
+      <c r="Q45">
         <v>6.2768420553092605E-2</v>
       </c>
-      <c r="P42">
+      <c r="R45">
         <v>4.8098531511242798E-2</v>
       </c>
-      <c r="Q42">
+      <c r="S45">
         <v>3.6888034298282399E-2</v>
       </c>
-      <c r="R42">
+      <c r="T45">
         <v>4.6145944732619397E-2</v>
       </c>
-      <c r="S42">
+      <c r="U45">
         <v>4.5339758231791198E-2</v>
       </c>
-      <c r="T42">
+      <c r="V45">
         <v>3.42017028747E-2</v>
       </c>
-      <c r="U42">
+      <c r="W45">
         <v>3.2840201083281999E-2</v>
       </c>
-      <c r="V42">
+      <c r="X45">
         <v>3.5755584060956601E-2</v>
       </c>
-      <c r="W42">
+      <c r="Y45">
         <v>3.6627093416257098E-2</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>1.9458411705220498E-2</v>
       </c>
-      <c r="C43">
+      <c r="E46">
         <v>4.2492675125708999E-3</v>
       </c>
-      <c r="D43">
+      <c r="F46">
         <v>2.2991864248890099E-4</v>
       </c>
-      <c r="E43">
+      <c r="G46">
         <v>0.100084040553148</v>
       </c>
-      <c r="F43">
+      <c r="H46">
         <v>1.72125579206335E-2</v>
       </c>
-      <c r="G43">
+      <c r="I46">
         <v>1.11819198029605E-2</v>
       </c>
-      <c r="H43">
+      <c r="J46">
         <v>8.0679997386077701E-2</v>
       </c>
-      <c r="I43">
+      <c r="K46">
         <v>9.2270188054620103E-2</v>
       </c>
-      <c r="J43">
+      <c r="L46">
         <v>3.4035826404450097E-2</v>
       </c>
-      <c r="K43">
+      <c r="M46">
         <v>0.124078230602633</v>
       </c>
-      <c r="L43">
+      <c r="N46">
         <v>1.9415379767248601E-2</v>
       </c>
-      <c r="M43">
+      <c r="O46">
         <v>3.3888352091171803E-2</v>
       </c>
-      <c r="N43">
+      <c r="P46">
         <v>7.9537922845564601E-2</v>
       </c>
-      <c r="O43">
+      <c r="Q46">
         <v>1.21964856270336E-2</v>
       </c>
-      <c r="P43">
+      <c r="R46">
         <v>7.0230829005172801E-2</v>
       </c>
-      <c r="Q43">
+      <c r="S46">
         <v>1.9017198194243801E-2</v>
       </c>
-      <c r="R43">
+      <c r="T46">
         <v>7.8074312957653796E-2</v>
       </c>
-      <c r="S43">
+      <c r="U46">
         <v>8.21177819641737E-2</v>
       </c>
-      <c r="T43">
+      <c r="V46">
         <v>1.6490943987630399E-2</v>
       </c>
-      <c r="U43">
+      <c r="W46">
         <v>3.51306536689163E-3</v>
       </c>
-      <c r="V43">
+      <c r="X46">
         <v>9.3803836933616293E-3</v>
       </c>
-      <c r="W43">
+      <c r="Y46">
         <v>9.2656985915050699E-2</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>5.3818331968385501E-2</v>
       </c>
-      <c r="C44">
+      <c r="E47">
         <v>3.7310724533173099E-2</v>
       </c>
-      <c r="D44">
+      <c r="F47">
         <v>1.86454399164795E-2</v>
       </c>
-      <c r="E44">
+      <c r="G47">
         <v>6.3390190852756406E-2</v>
       </c>
-      <c r="F44">
+      <c r="H47">
         <v>3.6102609288104902E-2</v>
       </c>
-      <c r="G44">
+      <c r="I47">
         <v>4.9212152292878501E-2</v>
       </c>
-      <c r="H44">
+      <c r="J47">
         <v>6.8878973737847196E-2</v>
       </c>
-      <c r="I44">
+      <c r="K47">
         <v>4.1352369708930699E-2</v>
       </c>
-      <c r="J44">
+      <c r="L47">
         <v>7.3382987801701993E-2</v>
       </c>
-      <c r="K44">
+      <c r="M47">
         <v>2.45750775305522E-2</v>
       </c>
-      <c r="L44">
+      <c r="N47">
         <v>3.13868532197938E-2</v>
       </c>
-      <c r="M44">
+      <c r="O47">
         <v>7.1745340018747605E-2</v>
       </c>
-      <c r="N44">
+      <c r="P47">
         <v>8.0705997850171907E-2</v>
       </c>
-      <c r="O44">
+      <c r="Q47">
         <v>6.7844244834148401E-2</v>
       </c>
-      <c r="P44">
+      <c r="R47">
         <v>8.3334642996878094E-2</v>
       </c>
-      <c r="Q44">
+      <c r="S47">
         <v>2.0292720109457901E-2</v>
       </c>
-      <c r="R44">
+      <c r="T47">
         <v>2.4699875221439901E-2</v>
       </c>
-      <c r="S44">
+      <c r="U47">
         <v>2.8095311459025701E-2</v>
       </c>
-      <c r="T44">
+      <c r="V47">
         <v>2.2741977567765401E-2</v>
       </c>
-      <c r="U44">
+      <c r="W47">
         <v>2.8288599228818601E-2</v>
       </c>
-      <c r="V44">
+      <c r="X47">
         <v>4.1098046642317601E-2</v>
       </c>
-      <c r="W44">
+      <c r="Y47">
         <v>3.3097533220625003E-2</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>1.0843497313375299E-3</v>
       </c>
-      <c r="C45">
+      <c r="E48">
         <v>3.3758401413602201E-3</v>
       </c>
-      <c r="D45">
+      <c r="F48">
         <v>2.50924763981018E-2</v>
       </c>
-      <c r="E45">
+      <c r="G48">
         <v>1.0559975467342899E-3</v>
       </c>
-      <c r="F45">
+      <c r="H48">
         <v>1.5790823900126601E-2</v>
       </c>
-      <c r="G45">
+      <c r="I48">
         <v>2.5921371774721199E-2</v>
       </c>
-      <c r="H45">
+      <c r="J48">
         <v>3.7399813377233301E-3</v>
       </c>
-      <c r="I45">
+      <c r="K48">
         <v>1.1092744767681901E-2</v>
       </c>
-      <c r="J45">
+      <c r="L48">
         <v>2.34853607284632E-2</v>
       </c>
-      <c r="K45">
+      <c r="M48">
         <v>3.6468062999725902E-2</v>
       </c>
-      <c r="L45">
+      <c r="N48">
         <v>0.12223135674539699</v>
       </c>
-      <c r="M45">
+      <c r="O48">
         <v>3.3757440579296097E-2</v>
       </c>
-      <c r="N45">
+      <c r="P48">
         <v>1.9800277832905402E-3</v>
       </c>
-      <c r="O45">
+      <c r="Q48">
         <v>3.70624060134499E-2</v>
       </c>
-      <c r="P45">
+      <c r="R48">
         <v>1.41073207670763E-2</v>
       </c>
-      <c r="Q45">
+      <c r="S48">
         <v>0.18259446225140299</v>
       </c>
-      <c r="R45">
+      <c r="T48">
         <v>3.0627221139579899E-2</v>
       </c>
-      <c r="S45">
+      <c r="U48">
         <v>3.1207503727154001E-2</v>
       </c>
-      <c r="T45">
+      <c r="V48">
         <v>0.16020169341308599</v>
       </c>
-      <c r="U45">
+      <c r="W48">
         <v>0.105289996110532</v>
       </c>
-      <c r="V45">
+      <c r="X48">
         <v>5.4283212520012197E-2</v>
       </c>
-      <c r="W45">
+      <c r="Y48">
         <v>7.9550349623747699E-2</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>2.9693419556907998E-3</v>
       </c>
-      <c r="C46">
+      <c r="E49">
         <v>8.8940752489951192E-3</v>
       </c>
-      <c r="D46">
+      <c r="F49">
         <v>5.4867425102902503E-3</v>
       </c>
-      <c r="E46">
+      <c r="G49">
         <v>1.4591986538010899E-2</v>
       </c>
-      <c r="F46">
+      <c r="H49">
         <v>2.7166414815982101E-2</v>
       </c>
-      <c r="G46">
+      <c r="I49">
         <v>3.8337881519517003E-2</v>
       </c>
-      <c r="H46">
+      <c r="J49">
         <v>4.4245899654420599E-2</v>
       </c>
-      <c r="I46">
+      <c r="K49">
         <v>3.4635009418741203E-2</v>
       </c>
-      <c r="J46">
+      <c r="L49">
         <v>4.19278931773946E-2</v>
       </c>
-      <c r="K46">
+      <c r="M49">
         <v>9.9085663160068602E-2</v>
       </c>
-      <c r="L46">
+      <c r="N49">
         <v>3.7734443705169499E-2</v>
       </c>
-      <c r="M46">
+      <c r="O49">
         <v>6.0459780956602899E-2</v>
       </c>
-      <c r="N46">
+      <c r="P49">
         <v>4.3702028280524503E-2</v>
       </c>
-      <c r="O46">
+      <c r="Q49">
         <v>7.3376691327868906E-2</v>
       </c>
-      <c r="P46">
+      <c r="R49">
         <v>0.168400054348605</v>
       </c>
-      <c r="Q46">
+      <c r="S49">
         <v>3.97845361057119E-2</v>
       </c>
-      <c r="R46">
+      <c r="T49">
         <v>5.80459368143132E-2</v>
       </c>
-      <c r="S46">
+      <c r="U49">
         <v>5.0652446418166602E-2</v>
       </c>
-      <c r="T46">
+      <c r="V49">
         <v>3.2905080041536999E-2</v>
       </c>
-      <c r="U46">
+      <c r="W49">
         <v>1.7161709545173699E-2</v>
       </c>
-      <c r="V46">
+      <c r="X49">
         <v>3.6508635838787301E-2</v>
       </c>
-      <c r="W46">
+      <c r="Y49">
         <v>6.3927748618428107E-2</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
